--- a/RNN_python/schd_sam_output_data/anom_data10.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data10.xlsx
@@ -427,7 +427,7 @@
         <v>43287</v>
       </c>
       <c r="D2" t="n">
-        <v>6.669220416147013</v>
+        <v>3.516498160500987</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43287.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>8.67910456143251</v>
+        <v>-1.396589011138545</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43287.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7.468866825329044</v>
+        <v>2.207524069931466</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43287.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2.67671882453503</v>
+        <v>5.063929461897985</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43287.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.267476879031918</v>
+        <v>6.062479105445632</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43287.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6.337606723537803</v>
+        <v>6.314254157011575</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43287.25</v>
       </c>
       <c r="D8" t="n">
-        <v>18.5808848369722</v>
+        <v>8.508796795080542</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43287.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>70.38513678963149</v>
+        <v>37.11661296975828</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43287.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>479.3213673866285</v>
+        <v>455.3897825618719</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43287.375</v>
       </c>
       <c r="D11" t="n">
-        <v>405.2395595334132</v>
+        <v>423.1293916346982</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43287.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>407.037656351339</v>
+        <v>408.1955284736769</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43287.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>225.5472921835257</v>
+        <v>227.4902857384614</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43287.5</v>
       </c>
       <c r="D14" t="n">
-        <v>262.0292629931415</v>
+        <v>250.7377643256169</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43287.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>186.0867509705637</v>
+        <v>177.154743224312</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43287.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>160.0444319957047</v>
+        <v>154.2109198886947</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43287.625</v>
       </c>
       <c r="D17" t="n">
-        <v>108.5304991839258</v>
+        <v>106.906078946839</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43287.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>89.99067165658364</v>
+        <v>79.17235846641302</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43287.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>61.97683264502778</v>
+        <v>54.91712014298262</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43287.75</v>
       </c>
       <c r="D20" t="n">
-        <v>46.6754291720466</v>
+        <v>37.13782820522765</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43287.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>33.11643019883833</v>
+        <v>24.11812047987441</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43287.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>23.95803524535636</v>
+        <v>14.66182583567833</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43287.875</v>
       </c>
       <c r="D23" t="n">
-        <v>17.99687456773816</v>
+        <v>7.888931894365243</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43287.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>14.35223721077494</v>
+        <v>3.142784280517503</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43287.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>23.53654750235157</v>
+        <v>2.038913420021544</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data10.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data10.xlsx
@@ -417,247 +417,249 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43287</v>
+        <v>43376</v>
       </c>
       <c r="D2" t="n">
-        <v>3.516498160500987</v>
+        <v>6.734167340019269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43287.04166666666</v>
+        <v>43376.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.396589011138545</v>
+        <v>2.999624345451622</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43287.08333333334</v>
+        <v>43376.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2.207524069931466</v>
+        <v>4.38364792360052</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43287.125</v>
+        <v>43376.125</v>
       </c>
       <c r="D5" t="n">
-        <v>5.063929461897985</v>
+        <v>4.514334194898808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43287.16666666666</v>
+        <v>43376.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.062479105445632</v>
+        <v>2.575250676556209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43287.20833333334</v>
+        <v>43376.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6.314254157011575</v>
+        <v>1.081795736312074</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43287.25</v>
+        <v>43376.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8.508796795080542</v>
+        <v>7.215134514984058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43287.29166666666</v>
+        <v>43376.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>37.11661296975828</v>
+        <v>29.77580487225882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43287.33333333334</v>
+        <v>43376.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>455.3897825618719</v>
+        <v>426.6645695483965</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43287.375</v>
+        <v>43376.375</v>
       </c>
       <c r="D11" t="n">
-        <v>423.1293916346982</v>
+        <v>345.0118286420943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43287.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>408.1955284736769</v>
+        <v>327.7451832088809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43287.45833333334</v>
+        <v>43376.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>227.4902857384614</v>
+        <v>213.5853394206615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43287.5</v>
+        <v>43376.5</v>
       </c>
       <c r="D14" t="n">
-        <v>250.7377643256169</v>
+        <v>202.6951076042723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43287.54166666666</v>
+        <v>43376.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>177.154743224312</v>
+        <v>159.1988839788356</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43287.58333333334</v>
+        <v>43376.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>154.2109198886947</v>
+        <v>118.3419323319737</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43287.625</v>
+        <v>43376.625</v>
       </c>
       <c r="D17" t="n">
-        <v>106.906078946839</v>
+        <v>83.6827874516496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43287.66666666666</v>
+        <v>43376.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>79.17235846641302</v>
+        <v>58.3252399640593</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43287.70833333334</v>
+        <v>43376.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>54.91712014298262</v>
+        <v>40.34539436967547</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43287.75</v>
+        <v>43376.75</v>
       </c>
       <c r="D20" t="n">
-        <v>37.13782820522765</v>
+        <v>27.62426837104024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43287.79166666666</v>
+        <v>43376.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>24.11812047987441</v>
+        <v>18.64804297663997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43287.83333333334</v>
+        <v>43376.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>14.66182583567833</v>
+        <v>12.38302726307553</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43287.875</v>
+        <v>43376.875</v>
       </c>
       <c r="D23" t="n">
-        <v>7.888931894365243</v>
+        <v>8.098325895201697</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43287.91666666666</v>
+        <v>43376.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>3.142784280517503</v>
+        <v>5.237873483206812</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43287.95833333334</v>
+        <v>43376.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>2.038913420021544</v>
+        <v>0.8727731109561745</v>
       </c>
     </row>
   </sheetData>
@@ -706,34 +708,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43287</v>
+        <v>43376</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43287.04166666666</v>
+        <v>43376.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43287.08333333334</v>
+        <v>43376.08333333334</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -743,210 +747,210 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43287.125</v>
+        <v>43376.125</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43287.16666666666</v>
+        <v>43376.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43287.20833333334</v>
+        <v>43376.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43287.25</v>
+        <v>43376.25</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43287.29166666666</v>
+        <v>43376.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43287.33333333334</v>
+        <v>43376.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>243</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43287.375</v>
+        <v>43376.375</v>
       </c>
       <c r="D11" t="n">
-        <v>252</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43287.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>208</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43287.45833333334</v>
+        <v>43376.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>112</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43287.5</v>
+        <v>43376.5</v>
       </c>
       <c r="D14" t="n">
-        <v>106</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43287.54166666666</v>
+        <v>43376.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>96</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43287.58333333334</v>
+        <v>43376.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43287.625</v>
+        <v>43376.625</v>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43287.66666666666</v>
+        <v>43376.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43287.70833333334</v>
+        <v>43376.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43287.75</v>
+        <v>43376.75</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43287.79166666666</v>
+        <v>43376.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43287.83333333334</v>
+        <v>43376.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43287.875</v>
+        <v>43376.875</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43287.91666666666</v>
+        <v>43376.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43287.95833333334</v>
+        <v>43376.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data10.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data10.xlsx
@@ -422,244 +422,244 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43376</v>
+        <v>43329</v>
       </c>
       <c r="D2" t="n">
-        <v>6.734167340019269</v>
+        <v>3.865442549155446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43376.04166666666</v>
+        <v>43329.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>2.999624345451622</v>
+        <v>-1.127484642607257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43376.08333333334</v>
+        <v>43329.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>4.38364792360052</v>
+        <v>3.431858443614757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43376.125</v>
+        <v>43329.125</v>
       </c>
       <c r="D5" t="n">
-        <v>4.514334194898808</v>
+        <v>6.814254738221308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43376.16666666666</v>
+        <v>43329.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>2.575250676556209</v>
+        <v>6.466379822361958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43376.20833333334</v>
+        <v>43329.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1.081795736312074</v>
+        <v>3.220982064836534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43376.25</v>
+        <v>43329.25</v>
       </c>
       <c r="D8" t="n">
-        <v>7.215134514984058</v>
+        <v>9.299200925339207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43376.29166666666</v>
+        <v>43329.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>29.77580487225882</v>
+        <v>48.83280673947588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43376.33333333334</v>
+        <v>43329.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>426.6645695483965</v>
+        <v>450.7822063816167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43376.375</v>
+        <v>43329.375</v>
       </c>
       <c r="D11" t="n">
-        <v>345.0118286420943</v>
+        <v>369.8782384971915</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43376.41666666666</v>
+        <v>43329.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>327.7451832088809</v>
+        <v>332.8030907212169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43376.45833333334</v>
+        <v>43329.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>213.5853394206615</v>
+        <v>210.5319568947152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43376.5</v>
+        <v>43329.5</v>
       </c>
       <c r="D14" t="n">
-        <v>202.6951076042723</v>
+        <v>211.0520217995884</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43376.54166666666</v>
+        <v>43329.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1988839788356</v>
+        <v>173.2058846861077</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43376.58333333334</v>
+        <v>43329.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>118.3419323319737</v>
+        <v>132.1505776447031</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43376.625</v>
+        <v>43329.625</v>
       </c>
       <c r="D17" t="n">
-        <v>83.6827874516496</v>
+        <v>95.79542394045428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43376.66666666666</v>
+        <v>43329.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>58.3252399640593</v>
+        <v>67.92023193431078</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43376.70833333334</v>
+        <v>43329.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>40.34539436967547</v>
+        <v>47.37314822352052</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43376.75</v>
+        <v>43329.75</v>
       </c>
       <c r="D20" t="n">
-        <v>27.62426837104024</v>
+        <v>32.50710865250567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43376.79166666666</v>
+        <v>43329.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>18.64804297663997</v>
+        <v>21.95017234952536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43376.83333333334</v>
+        <v>43329.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>12.38302726307553</v>
+        <v>14.63792271282335</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43376.875</v>
+        <v>43329.875</v>
       </c>
       <c r="D23" t="n">
-        <v>8.098325895201697</v>
+        <v>9.749639406397108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43376.91666666666</v>
+        <v>43329.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5.237873483206812</v>
+        <v>6.651059297003684</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43376.95833333334</v>
+        <v>43329.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8727731109561745</v>
+        <v>7.353965429996734</v>
       </c>
     </row>
   </sheetData>
@@ -713,41 +713,41 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43376</v>
+        <v>43329</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43376.04166666666</v>
+        <v>43329.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43376.08333333334</v>
+        <v>43329.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43376.125</v>
+        <v>43329.125</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -757,7 +757,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43376.16666666666</v>
+        <v>43329.16666666666</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -767,190 +767,190 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43376.20833333334</v>
+        <v>43329.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43376.25</v>
+        <v>43329.25</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43376.29166666666</v>
+        <v>43329.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43376.33333333334</v>
+        <v>43329.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>531</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43376.375</v>
+        <v>43329.375</v>
       </c>
       <c r="D11" t="n">
-        <v>420</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43376.41666666666</v>
+        <v>43329.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>481</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43376.45833333334</v>
+        <v>43329.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>273</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43376.5</v>
+        <v>43329.5</v>
       </c>
       <c r="D14" t="n">
-        <v>285</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43376.54166666666</v>
+        <v>43329.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>187</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43376.58333333334</v>
+        <v>43329.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43376.625</v>
+        <v>43329.625</v>
       </c>
       <c r="D17" t="n">
-        <v>101</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43376.66666666666</v>
+        <v>43329.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43376.70833333334</v>
+        <v>43329.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43376.75</v>
+        <v>43329.75</v>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43376.79166666666</v>
+        <v>43329.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43376.83333333334</v>
+        <v>43329.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43376.875</v>
+        <v>43329.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43376.91666666666</v>
+        <v>43329.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43376.95833333334</v>
+        <v>43329.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data10.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data10.xlsx
@@ -417,249 +417,247 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43329</v>
+        <v>43269</v>
       </c>
       <c r="D2" t="n">
-        <v>3.865442549155446</v>
+        <v>4.175576454815797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43329.04166666666</v>
+        <v>43269.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.127484642607257</v>
+        <v>2.862392677494796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43329.08333333334</v>
+        <v>43269.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3.431858443614757</v>
+        <v>5.294555803384924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43329.125</v>
+        <v>43269.125</v>
       </c>
       <c r="D5" t="n">
-        <v>6.814254738221308</v>
+        <v>4.574447104133384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43329.16666666666</v>
+        <v>43269.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.466379822361958</v>
+        <v>1.885987034706432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43329.20833333334</v>
+        <v>43269.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>3.220982064836534</v>
+        <v>3.204664524422384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43329.25</v>
+        <v>43269.25</v>
       </c>
       <c r="D8" t="n">
-        <v>9.299200925339207</v>
+        <v>13.28555894555323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43329.29166666666</v>
+        <v>43269.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>48.83280673947588</v>
+        <v>44.92751958097473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43329.33333333334</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>450.7822063816167</v>
+        <v>462.30874109219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43329.375</v>
+        <v>43269.375</v>
       </c>
       <c r="D11" t="n">
-        <v>369.8782384971915</v>
+        <v>402.8811515840679</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43329.41666666666</v>
+        <v>43269.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>332.8030907212169</v>
+        <v>414.8087472532212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43329.45833333334</v>
+        <v>43269.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>210.5319568947152</v>
+        <v>237.9843389429833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43329.5</v>
+        <v>43269.5</v>
       </c>
       <c r="D14" t="n">
-        <v>211.0520217995884</v>
+        <v>266.6962433328683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43329.54166666666</v>
+        <v>43269.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>173.2058846861077</v>
+        <v>189.326324790046</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43329.58333333334</v>
+        <v>43269.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>132.1505776447031</v>
+        <v>163.0483384619551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43329.625</v>
+        <v>43269.625</v>
       </c>
       <c r="D17" t="n">
-        <v>95.79542394045428</v>
+        <v>109.9478863441358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43329.66666666666</v>
+        <v>43269.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>67.92023193431078</v>
+        <v>86.91486128194896</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43329.70833333334</v>
+        <v>43269.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>47.37314822352052</v>
+        <v>54.12582960656839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43329.75</v>
+        <v>43269.75</v>
       </c>
       <c r="D20" t="n">
-        <v>32.50710865250567</v>
+        <v>37.88687781542612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43329.79166666666</v>
+        <v>43269.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>21.95017234952536</v>
+        <v>21.43116600629311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43329.83333333334</v>
+        <v>43269.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>14.63792271282335</v>
+        <v>13.33612992462098</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43329.875</v>
+        <v>43269.875</v>
       </c>
       <c r="D23" t="n">
-        <v>9.749639406397108</v>
+        <v>7.540059877115027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43329.91666666666</v>
+        <v>43269.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6.651059297003684</v>
+        <v>4.953318266506997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43329.95833333334</v>
+        <v>43269.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7.353965429996734</v>
+        <v>-1.742864340697508</v>
       </c>
     </row>
   </sheetData>
@@ -708,36 +706,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43329</v>
+        <v>43269</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43329.04166666666</v>
+        <v>43269.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43329.08333333334</v>
+        <v>43269.08333333334</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -747,197 +743,197 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43329.125</v>
+        <v>43269.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43329.16666666666</v>
+        <v>43269.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43329.20833333334</v>
+        <v>43269.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43329.25</v>
+        <v>43269.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43329.29166666666</v>
+        <v>43269.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43329.33333333334</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>342</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43329.375</v>
+        <v>43269.375</v>
       </c>
       <c r="D11" t="n">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43329.41666666666</v>
+        <v>43269.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43329.45833333334</v>
+        <v>43269.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43329.5</v>
+        <v>43269.5</v>
       </c>
       <c r="D14" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43329.54166666666</v>
+        <v>43269.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43329.58333333334</v>
+        <v>43269.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43329.625</v>
+        <v>43269.625</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43329.66666666666</v>
+        <v>43269.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43329.70833333334</v>
+        <v>43269.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43329.75</v>
+        <v>43269.75</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43329.79166666666</v>
+        <v>43269.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43329.83333333334</v>
+        <v>43269.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43329.875</v>
+        <v>43269.875</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43329.91666666666</v>
+        <v>43269.91666666666</v>
       </c>
       <c r="D24" t="n">
         <v>5</v>
@@ -947,10 +943,10 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43329.95833333334</v>
+        <v>43269.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
